--- a/sofaplayer/Ligue_1/Toulouse_stats.xlsx
+++ b/sofaplayer/Ligue_1/Toulouse_stats.xlsx
@@ -1391,16 +1391,16 @@
         <v>1199247</v>
       </c>
       <c r="E3" t="n">
-        <v>6.7058823529412</v>
+        <v>6.6833333333333</v>
       </c>
       <c r="F3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" t="n">
         <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>587</v>
+        <v>647</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -1409,22 +1409,22 @@
         <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>1.6519</v>
+        <v>1.6759</v>
       </c>
       <c r="L3" t="n">
-        <v>146.75</v>
+        <v>161.75</v>
       </c>
       <c r="M3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>30.769230769231</v>
+        <v>28.571428571429</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -1457,10 +1457,10 @@
         <v>2</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.27984802</v>
+        <v>0.30969372</v>
       </c>
       <c r="AB3" t="n">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
@@ -1469,22 +1469,22 @@
         <v>4</v>
       </c>
       <c r="AE3" t="n">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="AF3" t="n">
-        <v>75.177304964539</v>
+        <v>74.172185430464</v>
       </c>
       <c r="AG3" t="n">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="AH3" t="n">
         <v>42</v>
       </c>
       <c r="AI3" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="AJ3" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AK3" t="n">
         <v>3</v>
@@ -1499,22 +1499,22 @@
         <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP3" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AQ3" t="n">
         <v>4</v>
       </c>
       <c r="AR3" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AS3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU3" t="n">
         <v>4</v>
@@ -1532,40 +1532,40 @@
         <v>5</v>
       </c>
       <c r="AZ3" t="n">
-        <v>26.315789473684</v>
+        <v>22.727272727273</v>
       </c>
       <c r="BA3" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="BB3" t="n">
-        <v>35</v>
+        <v>35.338345864662</v>
       </c>
       <c r="BC3" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="BD3" t="n">
-        <v>37.931034482759</v>
+        <v>38.383838383838</v>
       </c>
       <c r="BE3" t="n">
         <v>9</v>
       </c>
       <c r="BF3" t="n">
-        <v>27.272727272727</v>
+        <v>26.470588235294</v>
       </c>
       <c r="BG3" t="n">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="BH3" t="n">
         <v>22</v>
       </c>
       <c r="BI3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BJ3" t="n">
         <v>6</v>
       </c>
       <c r="BK3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BL3" t="n">
         <v>0</v>
@@ -1577,22 +1577,22 @@
         <v>1</v>
       </c>
       <c r="BO3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BP3" t="n">
         <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>114</v>
+        <v>120.3</v>
       </c>
       <c r="BR3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS3" t="n">
         <v>6</v>
       </c>
       <c r="BT3" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="BU3" t="n">
         <v>0</v>
@@ -1610,16 +1610,16 @@
         <v>0</v>
       </c>
       <c r="BZ3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CA3" t="n">
         <v>3</v>
       </c>
       <c r="CB3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="CC3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CD3" t="n">
         <v>4</v>
@@ -1640,10 +1640,10 @@
         <v>0</v>
       </c>
       <c r="CJ3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CK3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CL3" t="n">
         <v>0</v>
@@ -1667,16 +1667,16 @@
         <v>4</v>
       </c>
       <c r="CS3" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="CT3" t="n">
         <v>5</v>
       </c>
       <c r="CU3" t="n">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="CV3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CW3" t="n">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>7</v>
       </c>
       <c r="DB3" t="n">
-        <v>53.846153846154</v>
+        <v>41.176470588235</v>
       </c>
       <c r="DC3" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>51</v>
       </c>
       <c r="DG3" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
@@ -1747,16 +1747,16 @@
         <v>911851</v>
       </c>
       <c r="E4" t="n">
-        <v>7.26</v>
+        <v>7.247619047619</v>
       </c>
       <c r="F4" t="n">
+        <v>21</v>
+      </c>
+      <c r="G4" t="n">
         <v>20</v>
       </c>
-      <c r="G4" t="n">
-        <v>19</v>
-      </c>
       <c r="H4" t="n">
-        <v>1714</v>
+        <v>1804</v>
       </c>
       <c r="I4" t="n">
         <v>2</v>
@@ -1765,22 +1765,22 @@
         <v>6</v>
       </c>
       <c r="K4" t="n">
-        <v>3.4327</v>
+        <v>3.935</v>
       </c>
       <c r="L4" t="n">
-        <v>285.66666666667</v>
+        <v>300.66666666667</v>
       </c>
       <c r="M4" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>18.75</v>
+        <v>17.142857142857</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -1813,46 +1813,46 @@
         <v>2</v>
       </c>
       <c r="AA4" t="n">
-        <v>3.03102858</v>
+        <v>3.56555158</v>
       </c>
       <c r="AB4" t="n">
-        <v>830</v>
+        <v>898</v>
       </c>
       <c r="AC4" t="n">
         <v>1</v>
       </c>
       <c r="AD4" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AE4" t="n">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="AF4" t="n">
-        <v>80.174291938998</v>
+        <v>80.753968253968</v>
       </c>
       <c r="AG4" t="n">
-        <v>459</v>
+        <v>504</v>
       </c>
       <c r="AH4" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AI4" t="n">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="AJ4" t="n">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AK4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL4" t="n">
-        <v>55</v>
+        <v>57.142857142857</v>
       </c>
       <c r="AM4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN4" t="n">
-        <v>22.222222222222</v>
+        <v>24.137931034483</v>
       </c>
       <c r="AO4" t="n">
         <v>9</v>
@@ -1861,10 +1861,10 @@
         <v>9</v>
       </c>
       <c r="AQ4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR4" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="AS4" t="n">
         <v>12</v>
@@ -1873,7 +1873,7 @@
         <v>1</v>
       </c>
       <c r="AU4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AV4" t="n">
         <v>0</v>
@@ -1885,22 +1885,22 @@
         <v>0</v>
       </c>
       <c r="AY4" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="AZ4" t="n">
-        <v>50.49504950495</v>
+        <v>50.442477876106</v>
       </c>
       <c r="BA4" t="n">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="BB4" t="n">
-        <v>47.413793103448</v>
+        <v>47.755102040816</v>
       </c>
       <c r="BC4" t="n">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="BD4" t="n">
-        <v>48.878923766816</v>
+        <v>49.152542372881</v>
       </c>
       <c r="BE4" t="n">
         <v>1</v>
@@ -1909,13 +1909,13 @@
         <v>11.111111111111</v>
       </c>
       <c r="BG4" t="n">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="BH4" t="n">
         <v>13</v>
       </c>
       <c r="BI4" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="BJ4" t="n">
         <v>1</v>
@@ -1933,22 +1933,22 @@
         <v>5</v>
       </c>
       <c r="BO4" t="n">
+        <v>23</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="BR4" t="n">
         <v>21</v>
-      </c>
-      <c r="BP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ4" t="n">
-        <v>145.2</v>
-      </c>
-      <c r="BR4" t="n">
-        <v>20</v>
       </c>
       <c r="BS4" t="n">
         <v>8</v>
       </c>
       <c r="BT4" t="n">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="BU4" t="n">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>0</v>
       </c>
       <c r="BZ4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CA4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="CB4" t="n">
         <v>40</v>
@@ -1996,10 +1996,10 @@
         <v>0</v>
       </c>
       <c r="CJ4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CK4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CL4" t="n">
         <v>0</v>
@@ -2020,16 +2020,16 @@
         <v>0</v>
       </c>
       <c r="CR4" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="CS4" t="n">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="CT4" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="CU4" t="n">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="CV4" t="n">
         <v>8</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="CZ4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="DA4" t="n">
         <v>6</v>
@@ -2062,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="DG4" t="n">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
@@ -2103,16 +2103,16 @@
         <v>1128844</v>
       </c>
       <c r="E5" t="n">
-        <v>6.4466666666667</v>
+        <v>6.425</v>
       </c>
       <c r="F5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" t="n">
-        <v>946</v>
+        <v>1008</v>
       </c>
       <c r="I5" t="n">
         <v>2</v>
@@ -2124,7 +2124,7 @@
         <v>4.9826</v>
       </c>
       <c r="L5" t="n">
-        <v>315.33333333333</v>
+        <v>336</v>
       </c>
       <c r="M5" t="n">
         <v>36</v>
@@ -2169,10 +2169,10 @@
         <v>2</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.41215422</v>
+        <v>0.42028981</v>
       </c>
       <c r="AB5" t="n">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
@@ -2181,22 +2181,22 @@
         <v>11</v>
       </c>
       <c r="AE5" t="n">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="AF5" t="n">
-        <v>76.92307692307701</v>
+        <v>76.31578947368401</v>
       </c>
       <c r="AG5" t="n">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="AH5" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AI5" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AJ5" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AK5" t="n">
         <v>3</v>
@@ -2214,7 +2214,7 @@
         <v>5</v>
       </c>
       <c r="AP5" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AQ5" t="n">
         <v>10</v>
@@ -2223,7 +2223,7 @@
         <v>22</v>
       </c>
       <c r="AS5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT5" t="n">
         <v>11</v>
@@ -2244,19 +2244,19 @@
         <v>7</v>
       </c>
       <c r="AZ5" t="n">
-        <v>36.842105263158</v>
+        <v>35</v>
       </c>
       <c r="BA5" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="BB5" t="n">
-        <v>39.306358381503</v>
+        <v>39.010989010989</v>
       </c>
       <c r="BC5" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="BD5" t="n">
-        <v>34.615384615385</v>
+        <v>34.48275862069</v>
       </c>
       <c r="BE5" t="n">
         <v>41</v>
@@ -2265,16 +2265,16 @@
         <v>43.157894736842</v>
       </c>
       <c r="BG5" t="n">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="BH5" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="BI5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BJ5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BK5" t="n">
         <v>3</v>
@@ -2289,22 +2289,22 @@
         <v>1</v>
       </c>
       <c r="BO5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BP5" t="n">
         <v>0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>96.7</v>
+        <v>102.8</v>
       </c>
       <c r="BR5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BS5" t="n">
         <v>5</v>
       </c>
       <c r="BT5" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="BU5" t="n">
         <v>1</v>
@@ -2328,7 +2328,7 @@
         <v>6</v>
       </c>
       <c r="CB5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CC5" t="n">
         <v>2</v>
@@ -2352,10 +2352,10 @@
         <v>0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CK5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL5" t="n">
         <v>0</v>
@@ -2379,13 +2379,13 @@
         <v>11</v>
       </c>
       <c r="CS5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CT5" t="n">
         <v>7</v>
       </c>
       <c r="CU5" t="n">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="CV5" t="n">
         <v>54</v>
@@ -2403,7 +2403,7 @@
         <v>3</v>
       </c>
       <c r="DA5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="DB5" t="n">
         <v>50</v>
@@ -2418,10 +2418,10 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="DG5" t="n">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="DH5" t="n">
         <v>0</v>
@@ -2459,98 +2459,100 @@
         <v>1002267</v>
       </c>
       <c r="E6" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
+        <v>44</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.1023</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.0574934</v>
+      </c>
+      <c r="AB6" t="n">
         <v>16</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0.0523709</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>9</v>
-      </c>
       <c r="AC6" t="n">
         <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AF6" t="n">
-        <v>50</v>
+        <v>62.5</v>
       </c>
       <c r="AG6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI6" t="n">
         <v>4</v>
       </c>
-      <c r="AH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>2</v>
-      </c>
       <c r="AJ6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK6" t="n">
         <v>0</v>
@@ -2601,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="BA6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB6" t="n">
-        <v>100</v>
+        <v>42.857142857143</v>
       </c>
       <c r="BC6" t="n">
         <v>1</v>
@@ -2613,16 +2615,16 @@
         <v>100</v>
       </c>
       <c r="BE6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF6" t="n">
-        <v>100</v>
+        <v>33.333333333333</v>
       </c>
       <c r="BG6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BH6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI6" t="n">
         <v>1</v>
@@ -2649,16 +2651,16 @@
         <v>0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>6.7</v>
+        <v>13</v>
       </c>
       <c r="BR6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BS6" t="n">
         <v>0</v>
       </c>
       <c r="BT6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BU6" t="n">
         <v>0</v>
@@ -2676,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA6" t="n">
         <v>0</v>
@@ -2730,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="CR6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CS6" t="n">
         <v>0</v>
@@ -2739,10 +2741,10 @@
         <v>2</v>
       </c>
       <c r="CU6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CV6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CW6" t="n">
         <v>0</v>
@@ -2772,10 +2774,10 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DG6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="DH6" t="n">
         <v>0</v>
@@ -2813,16 +2815,16 @@
         <v>1657108</v>
       </c>
       <c r="E7" t="n">
-        <v>6.625</v>
+        <v>6.6777777777778</v>
       </c>
       <c r="F7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -2831,22 +2833,22 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1391</v>
+        <v>0.4774</v>
       </c>
       <c r="L7" t="n">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>33.333333333333</v>
+        <v>20</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -2879,34 +2881,34 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.08840839</v>
+        <v>0.25676339</v>
       </c>
       <c r="AB7" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AF7" t="n">
-        <v>43.75</v>
+        <v>47.368421052632</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AH7" t="n">
         <v>3</v>
       </c>
       <c r="AI7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK7" t="n">
         <v>0</v>
@@ -2915,10 +2917,10 @@
         <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN7" t="n">
-        <v>66.666666666667</v>
+        <v>60</v>
       </c>
       <c r="AO7" t="n">
         <v>0</v>
@@ -2930,7 +2932,7 @@
         <v>2</v>
       </c>
       <c r="AR7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS7" t="n">
         <v>1</v>
@@ -2939,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV7" t="n">
         <v>0</v>
@@ -2975,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="BG7" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BH7" t="n">
         <v>3</v>
@@ -3005,16 +3007,16 @@
         <v>0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>53</v>
+        <v>60.1</v>
       </c>
       <c r="BR7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BS7" t="n">
         <v>1</v>
       </c>
       <c r="BT7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BU7" t="n">
         <v>0</v>
@@ -3032,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="BZ7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CA7" t="n">
         <v>1</v>
@@ -3086,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="CR7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CS7" t="n">
         <v>5</v>
       </c>
       <c r="CT7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CU7" t="n">
         <v>8</v>
@@ -3110,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA7" t="n">
         <v>2</v>
@@ -3131,7 +3133,7 @@
         <v>5</v>
       </c>
       <c r="DG7" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="DH7" t="n">
         <v>0</v>
@@ -3169,134 +3171,134 @@
         <v>1410217</v>
       </c>
       <c r="E8" t="n">
-        <v>7.175</v>
+        <v>7.16</v>
       </c>
       <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>432</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.5034</v>
+      </c>
+      <c r="L8" t="n">
+        <v>432</v>
+      </c>
+      <c r="M8" t="n">
+        <v>15</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>6.6666666666667</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.5521709</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>325</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>204</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>87.931034482759</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>232</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>104</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>53</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>63.157894736842</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU8" t="n">
         <v>4</v>
       </c>
-      <c r="G8" t="n">
-        <v>4</v>
-      </c>
-      <c r="H8" t="n">
-        <v>342</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.242</v>
-      </c>
-      <c r="L8" t="n">
-        <v>342</v>
-      </c>
-      <c r="M8" t="n">
-        <v>10</v>
-      </c>
-      <c r="N8" t="n">
-        <v>5</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0.2570779</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>234</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>153</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>88.439306358382</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>173</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>92</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>61</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>58.823529411765</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>33.333333333333</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>2</v>
-      </c>
       <c r="AV8" t="n">
         <v>0</v>
       </c>
@@ -3310,34 +3312,34 @@
         <v>1</v>
       </c>
       <c r="AZ8" t="n">
-        <v>33.333333333333</v>
+        <v>25</v>
       </c>
       <c r="BA8" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="BB8" t="n">
-        <v>41.176470588235</v>
+        <v>50</v>
       </c>
       <c r="BC8" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="BD8" t="n">
-        <v>40</v>
+        <v>48.780487804878</v>
       </c>
       <c r="BE8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BF8" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="BG8" t="n">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="BH8" t="n">
         <v>5</v>
       </c>
       <c r="BI8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BJ8" t="n">
         <v>0</v>
@@ -3355,124 +3357,124 @@
         <v>2</v>
       </c>
       <c r="BO8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BP8" t="n">
         <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>28.7</v>
+        <v>35.8</v>
       </c>
       <c r="BR8" t="n">
+        <v>5</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>2</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>28</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>5</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>2</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>13</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>5</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>12</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>8</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>13</v>
+      </c>
+      <c r="CS8" t="n">
         <v>4</v>
       </c>
-      <c r="BS8" t="n">
-        <v>2</v>
-      </c>
-      <c r="BT8" t="n">
-        <v>20</v>
-      </c>
-      <c r="BU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV8" t="n">
-        <v>3</v>
-      </c>
-      <c r="BW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA8" t="n">
+      <c r="CT8" t="n">
         <v>10</v>
       </c>
-      <c r="CB8" t="n">
-        <v>4</v>
-      </c>
-      <c r="CC8" t="n">
-        <v>8</v>
-      </c>
-      <c r="CD8" t="n">
-        <v>6</v>
-      </c>
-      <c r="CE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ8" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR8" t="n">
+      <c r="CU8" t="n">
+        <v>23</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>2</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>19</v>
+      </c>
+      <c r="DA8" t="n">
         <v>5</v>
       </c>
-      <c r="CS8" t="n">
-        <v>3</v>
-      </c>
-      <c r="CT8" t="n">
-        <v>3</v>
-      </c>
-      <c r="CU8" t="n">
-        <v>20</v>
-      </c>
-      <c r="CV8" t="n">
-        <v>2</v>
-      </c>
-      <c r="CW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ8" t="n">
-        <v>17</v>
-      </c>
-      <c r="DA8" t="n">
-        <v>4</v>
-      </c>
       <c r="DB8" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="DC8" t="n">
         <v>0</v>
@@ -3484,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="DG8" t="n">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="DH8" t="n">
         <v>1</v>
@@ -3881,16 +3883,16 @@
         <v>878938</v>
       </c>
       <c r="E10" t="n">
-        <v>7.13</v>
+        <v>7.1047619047619</v>
       </c>
       <c r="F10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H10" t="n">
-        <v>1654</v>
+        <v>1717</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -3902,7 +3904,7 @@
         <v>1.5345</v>
       </c>
       <c r="L10" t="n">
-        <v>1654</v>
+        <v>1717</v>
       </c>
       <c r="M10" t="n">
         <v>17</v>
@@ -3947,58 +3949,58 @@
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.3349275</v>
+        <v>2.4977205</v>
       </c>
       <c r="AB10" t="n">
-        <v>1180</v>
+        <v>1236</v>
       </c>
       <c r="AC10" t="n">
         <v>3</v>
       </c>
       <c r="AD10" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE10" t="n">
-        <v>704</v>
+        <v>747</v>
       </c>
       <c r="AF10" t="n">
-        <v>84.109916367981</v>
+        <v>84.69387755101999</v>
       </c>
       <c r="AG10" t="n">
-        <v>837</v>
+        <v>882</v>
       </c>
       <c r="AH10" t="n">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="AI10" t="n">
-        <v>356</v>
+        <v>389</v>
       </c>
       <c r="AJ10" t="n">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="AK10" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL10" t="n">
-        <v>61.176470588235</v>
+        <v>62.068965517241</v>
       </c>
       <c r="AM10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN10" t="n">
-        <v>26.865671641791</v>
+        <v>27.142857142857</v>
       </c>
       <c r="AO10" t="n">
         <v>24</v>
       </c>
       <c r="AP10" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AQ10" t="n">
         <v>12</v>
       </c>
       <c r="AR10" t="n">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AS10" t="n">
         <v>18</v>
@@ -4025,28 +4027,28 @@
         <v>57.692307692308</v>
       </c>
       <c r="BA10" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="BB10" t="n">
-        <v>60.215053763441</v>
+        <v>59.585492227979</v>
       </c>
       <c r="BC10" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="BD10" t="n">
-        <v>62.576687116564</v>
+        <v>61.904761904762</v>
       </c>
       <c r="BE10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BF10" t="n">
-        <v>43.478260869565</v>
+        <v>44</v>
       </c>
       <c r="BG10" t="n">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="BH10" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BI10" t="n">
         <v>31</v>
@@ -4055,7 +4057,7 @@
         <v>1</v>
       </c>
       <c r="BK10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BL10" t="n">
         <v>0</v>
@@ -4067,22 +4069,22 @@
         <v>7</v>
       </c>
       <c r="BO10" t="n">
+        <v>23</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>149.2</v>
+      </c>
+      <c r="BR10" t="n">
         <v>21</v>
       </c>
-      <c r="BP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ10" t="n">
-        <v>142.6</v>
-      </c>
-      <c r="BR10" t="n">
-        <v>20</v>
-      </c>
       <c r="BS10" t="n">
         <v>1</v>
       </c>
       <c r="BT10" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="BU10" t="n">
         <v>0</v>
@@ -4106,10 +4108,10 @@
         <v>11</v>
       </c>
       <c r="CB10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CC10" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="CD10" t="n">
         <v>47</v>
@@ -4130,10 +4132,10 @@
         <v>0</v>
       </c>
       <c r="CJ10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CK10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CL10" t="n">
         <v>0</v>
@@ -4154,19 +4156,19 @@
         <v>0</v>
       </c>
       <c r="CR10" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="CS10" t="n">
         <v>26</v>
       </c>
       <c r="CT10" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="CU10" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="CV10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CW10" t="n">
         <v>0</v>
@@ -4178,13 +4180,13 @@
         <v>1</v>
       </c>
       <c r="CZ10" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="DA10" t="n">
         <v>33</v>
       </c>
       <c r="DB10" t="n">
-        <v>57.894736842105</v>
+        <v>55.932203389831</v>
       </c>
       <c r="DC10" t="n">
         <v>0</v>
@@ -4196,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="DG10" t="n">
-        <v>457</v>
+        <v>492</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
@@ -4237,16 +4239,16 @@
         <v>1198264</v>
       </c>
       <c r="E11" t="n">
-        <v>6.7545454545455</v>
+        <v>6.7916666666667</v>
       </c>
       <c r="F11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -4301,58 +4303,58 @@
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.27699316</v>
+        <v>0.62224716</v>
       </c>
       <c r="AB11" t="n">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="AF11" t="n">
-        <v>73.456790123457</v>
+        <v>75.70621468926601</v>
       </c>
       <c r="AG11" t="n">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="AH11" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI11" t="n">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="AJ11" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AK11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL11" t="n">
-        <v>44.444444444444</v>
+        <v>50</v>
       </c>
       <c r="AM11" t="n">
         <v>1</v>
       </c>
       <c r="AN11" t="n">
-        <v>10</v>
+        <v>9.090909090909101</v>
       </c>
       <c r="AO11" t="n">
         <v>12</v>
       </c>
       <c r="AP11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ11" t="n">
         <v>2</v>
       </c>
       <c r="AR11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS11" t="n">
         <v>2</v>
@@ -4373,22 +4375,22 @@
         <v>0</v>
       </c>
       <c r="AY11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AZ11" t="n">
-        <v>22.222222222222</v>
+        <v>36.363636363636</v>
       </c>
       <c r="BA11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BB11" t="n">
-        <v>50</v>
+        <v>51.785714285714</v>
       </c>
       <c r="BC11" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BD11" t="n">
-        <v>51.282051282051</v>
+        <v>53.488372093023</v>
       </c>
       <c r="BE11" t="n">
         <v>6</v>
@@ -4397,10 +4399,10 @@
         <v>46.153846153846</v>
       </c>
       <c r="BG11" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="BH11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BI11" t="n">
         <v>9</v>
@@ -4427,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>74.3</v>
+        <v>81.5</v>
       </c>
       <c r="BR11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BS11" t="n">
         <v>0</v>
@@ -4508,16 +4510,16 @@
         <v>0</v>
       </c>
       <c r="CR11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CS11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="CT11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CU11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="CV11" t="n">
         <v>7</v>
@@ -4532,13 +4534,13 @@
         <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="DA11" t="n">
         <v>6</v>
       </c>
       <c r="DB11" t="n">
-        <v>66.666666666667</v>
+        <v>60</v>
       </c>
       <c r="DC11" t="n">
         <v>0</v>
@@ -4550,10 +4552,10 @@
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="DG11" t="n">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="DH11" t="n">
         <v>0</v>
@@ -4591,16 +4593,16 @@
         <v>863133</v>
       </c>
       <c r="E12" t="n">
-        <v>7.3611111111111</v>
+        <v>7.3526315789474</v>
       </c>
       <c r="F12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H12" t="n">
-        <v>1591</v>
+        <v>1681</v>
       </c>
       <c r="I12" t="n">
         <v>3</v>
@@ -4609,22 +4611,22 @@
         <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>3.8807</v>
+        <v>4.222</v>
       </c>
       <c r="L12" t="n">
-        <v>530.33333333333</v>
+        <v>560.33333333333</v>
       </c>
       <c r="M12" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O12" t="n">
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>13.04347826087</v>
+        <v>10.714285714286</v>
       </c>
       <c r="Q12" t="n">
         <v>3</v>
@@ -4657,67 +4659,67 @@
         <v>3</v>
       </c>
       <c r="AA12" t="n">
-        <v>4.48658768</v>
+        <v>4.87454068</v>
       </c>
       <c r="AB12" t="n">
-        <v>1016</v>
+        <v>1106</v>
       </c>
       <c r="AC12" t="n">
         <v>6</v>
       </c>
       <c r="AD12" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AE12" t="n">
-        <v>476</v>
+        <v>527</v>
       </c>
       <c r="AF12" t="n">
-        <v>78.289473684211</v>
+        <v>78.77428998505199</v>
       </c>
       <c r="AG12" t="n">
-        <v>608</v>
+        <v>669</v>
       </c>
       <c r="AH12" t="n">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="AI12" t="n">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="AJ12" t="n">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="AK12" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="AL12" t="n">
-        <v>72.222222222222</v>
+        <v>73.170731707317</v>
       </c>
       <c r="AM12" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AN12" t="n">
-        <v>32.673267326733</v>
+        <v>31.858407079646</v>
       </c>
       <c r="AO12" t="n">
         <v>20</v>
       </c>
       <c r="AP12" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AQ12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR12" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AS12" t="n">
         <v>17</v>
       </c>
       <c r="AT12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV12" t="n">
         <v>1</v>
@@ -4729,31 +4731,31 @@
         <v>0</v>
       </c>
       <c r="AY12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ12" t="n">
-        <v>44.186046511628</v>
+        <v>44.444444444444</v>
       </c>
       <c r="BA12" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="BB12" t="n">
-        <v>48.823529411765</v>
+        <v>48.022598870056</v>
       </c>
       <c r="BC12" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BD12" t="n">
-        <v>47.904191616766</v>
+        <v>47.398843930636</v>
       </c>
       <c r="BE12" t="n">
         <v>3</v>
       </c>
       <c r="BF12" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="BG12" t="n">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="BH12" t="n">
         <v>23</v>
@@ -4777,28 +4779,28 @@
         <v>6</v>
       </c>
       <c r="BO12" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BP12" t="n">
         <v>0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>132.5</v>
+        <v>139.7</v>
       </c>
       <c r="BR12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS12" t="n">
         <v>6</v>
       </c>
       <c r="BT12" t="n">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="BU12" t="n">
         <v>0</v>
       </c>
       <c r="BV12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BW12" t="n">
         <v>3</v>
@@ -4810,19 +4812,19 @@
         <v>1</v>
       </c>
       <c r="BZ12" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="CA12" t="n">
         <v>7</v>
       </c>
       <c r="CB12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="CC12" t="n">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="CD12" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="CE12" t="n">
         <v>0</v>
@@ -4840,10 +4842,10 @@
         <v>0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CK12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CL12" t="n">
         <v>0</v>
@@ -4864,19 +4866,19 @@
         <v>0</v>
       </c>
       <c r="CR12" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="CS12" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CT12" t="n">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="CU12" t="n">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="CV12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW12" t="n">
         <v>0</v>
@@ -4888,13 +4890,13 @@
         <v>0</v>
       </c>
       <c r="CZ12" t="n">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="DA12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="DB12" t="n">
-        <v>64.51612903225799</v>
+        <v>65.625</v>
       </c>
       <c r="DC12" t="n">
         <v>0</v>
@@ -4906,10 +4908,10 @@
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="DG12" t="n">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="DH12" t="n">
         <v>0</v>
@@ -4947,16 +4949,16 @@
         <v>1386065</v>
       </c>
       <c r="E13" t="n">
-        <v>6.5928571428571</v>
+        <v>6.58</v>
       </c>
       <c r="F13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G13" t="n">
         <v>6</v>
       </c>
       <c r="H13" t="n">
-        <v>531</v>
+        <v>558</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -4965,13 +4967,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.251</v>
+        <v>0.2986</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N13" t="n">
         <v>1</v>
@@ -5013,10 +5015,10 @@
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.31353765</v>
+        <v>0.48229265</v>
       </c>
       <c r="AB13" t="n">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -5025,28 +5027,28 @@
         <v>2</v>
       </c>
       <c r="AE13" t="n">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="AF13" t="n">
-        <v>79.545454545455</v>
+        <v>77.486910994764</v>
       </c>
       <c r="AG13" t="n">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AH13" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI13" t="n">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AJ13" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AK13" t="n">
         <v>6</v>
       </c>
       <c r="AL13" t="n">
-        <v>54.545454545455</v>
+        <v>50</v>
       </c>
       <c r="AM13" t="n">
         <v>2</v>
@@ -5058,13 +5060,13 @@
         <v>8</v>
       </c>
       <c r="AP13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ13" t="n">
         <v>6</v>
       </c>
       <c r="AR13" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AS13" t="n">
         <v>5</v>
@@ -5073,7 +5075,7 @@
         <v>10</v>
       </c>
       <c r="AU13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV13" t="n">
         <v>0</v>
@@ -5091,25 +5093,25 @@
         <v>66.666666666667</v>
       </c>
       <c r="BA13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB13" t="n">
-        <v>54.054054054054</v>
+        <v>53.846153846154</v>
       </c>
       <c r="BC13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD13" t="n">
-        <v>50</v>
+        <v>51.724137931034</v>
       </c>
       <c r="BE13" t="n">
         <v>6</v>
       </c>
       <c r="BF13" t="n">
-        <v>66.666666666667</v>
+        <v>60</v>
       </c>
       <c r="BG13" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="BH13" t="n">
         <v>6</v>
@@ -5139,16 +5141,16 @@
         <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>92.3</v>
+        <v>98.7</v>
       </c>
       <c r="BR13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BS13" t="n">
         <v>0</v>
       </c>
       <c r="BT13" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="BU13" t="n">
         <v>0</v>
@@ -5169,13 +5171,13 @@
         <v>1</v>
       </c>
       <c r="CA13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CB13" t="n">
         <v>2</v>
       </c>
       <c r="CC13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CD13" t="n">
         <v>5</v>
@@ -5229,10 +5231,10 @@
         <v>5</v>
       </c>
       <c r="CU13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CV13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CW13" t="n">
         <v>0</v>
@@ -5244,13 +5246,13 @@
         <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="DA13" t="n">
         <v>6</v>
       </c>
       <c r="DB13" t="n">
-        <v>66.666666666667</v>
+        <v>60</v>
       </c>
       <c r="DC13" t="n">
         <v>0</v>
@@ -5262,10 +5264,10 @@
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="DG13" t="n">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="DH13" t="n">
         <v>0</v>
@@ -5296,218 +5298,218 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Dayann Methalie</t>
+          <t>Alexis Vossah</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1894003</v>
+        <v>2193194</v>
       </c>
       <c r="E14" t="n">
-        <v>6.5</v>
+        <v>6.4928571428571</v>
       </c>
       <c r="F14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G14" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H14" t="n">
-        <v>1186</v>
+        <v>605</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5199</v>
+        <v>0.526</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>605</v>
       </c>
       <c r="M14" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N14" t="n">
+        <v>2</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>14.285714285714</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.33043747</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>277</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>146</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>74.48979591836699</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>196</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>73</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>73</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>31</v>
+      </c>
+      <c r="AK14" t="n">
         <v>5</v>
       </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1.08865493</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>593</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>206</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>77.15355805243399</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>267</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>106</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>7</v>
-      </c>
       <c r="AL14" t="n">
-        <v>38.888888888889</v>
+        <v>33.333333333333</v>
       </c>
       <c r="AM14" t="n">
         <v>3</v>
       </c>
       <c r="AN14" t="n">
-        <v>12.5</v>
+        <v>50</v>
       </c>
       <c r="AO14" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AP14" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AQ14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>60</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>23</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>48.936170212766</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>41.176470588235</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>69.230769230769</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>71</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO14" t="n">
         <v>6</v>
       </c>
-      <c r="AR14" t="n">
-        <v>58</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>20</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>39.21568627451</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>41.358024691358</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>62</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>41.610738255034</v>
-      </c>
-      <c r="BE14" t="n">
-        <v>5</v>
-      </c>
-      <c r="BF14" t="n">
-        <v>38.461538461538</v>
-      </c>
-      <c r="BG14" t="n">
-        <v>181</v>
-      </c>
-      <c r="BH14" t="n">
-        <v>34</v>
-      </c>
-      <c r="BI14" t="n">
-        <v>8</v>
-      </c>
-      <c r="BJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK14" t="n">
-        <v>4</v>
-      </c>
-      <c r="BL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN14" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO14" t="n">
-        <v>15</v>
-      </c>
       <c r="BP14" t="n">
         <v>0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>110.5</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="BR14" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BS14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BT14" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="BU14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV14" t="n">
         <v>4</v>
@@ -5516,25 +5518,25 @@
         <v>0</v>
       </c>
       <c r="BX14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY14" t="n">
         <v>0</v>
       </c>
       <c r="BZ14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="CA14" t="n">
         <v>3</v>
       </c>
       <c r="CB14" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="CC14" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="CD14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CE14" t="n">
         <v>0</v>
@@ -5552,10 +5554,10 @@
         <v>0</v>
       </c>
       <c r="CJ14" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="CK14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CL14" t="n">
         <v>0</v>
@@ -5576,19 +5578,19 @@
         <v>0</v>
       </c>
       <c r="CR14" t="n">
+        <v>3</v>
+      </c>
+      <c r="CS14" t="n">
+        <v>5</v>
+      </c>
+      <c r="CT14" t="n">
         <v>6</v>
       </c>
-      <c r="CS14" t="n">
-        <v>51</v>
-      </c>
-      <c r="CT14" t="n">
+      <c r="CU14" t="n">
         <v>24</v>
       </c>
-      <c r="CU14" t="n">
-        <v>95</v>
-      </c>
       <c r="CV14" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="CW14" t="n">
         <v>0</v>
@@ -5600,13 +5602,13 @@
         <v>0</v>
       </c>
       <c r="CZ14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="DA14" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="DB14" t="n">
-        <v>54.285714285714</v>
+        <v>42.857142857143</v>
       </c>
       <c r="DC14" t="n">
         <v>0</v>
@@ -5618,19 +5620,19 @@
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="DG14" t="n">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="DH14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DJ14" t="n">
-        <v>2140581</v>
+        <v>2140547</v>
       </c>
       <c r="DK14" t="inlineStr">
         <is>
@@ -5652,47 +5654,47 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Alexis Vossah</t>
+          <t>Warren Kamanzi</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2193194</v>
+        <v>1048366</v>
       </c>
       <c r="E15" t="n">
-        <v>6.4928571428571</v>
+        <v>6.6692307692308</v>
       </c>
       <c r="F15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>343</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.4222</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
         <v>6</v>
       </c>
-      <c r="H15" t="n">
-        <v>605</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.526</v>
-      </c>
-      <c r="L15" t="n">
-        <v>605</v>
-      </c>
-      <c r="M15" t="n">
-        <v>7</v>
-      </c>
       <c r="N15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>14.285714285714</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -5707,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -5716,58 +5718,58 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.33043747</v>
+        <v>0.49709729</v>
       </c>
       <c r="AB15" t="n">
-        <v>277</v>
+        <v>180</v>
       </c>
       <c r="AC15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE15" t="n">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="AF15" t="n">
-        <v>74.48979591836699</v>
+        <v>87.826086956522</v>
       </c>
       <c r="AG15" t="n">
-        <v>196</v>
+        <v>115</v>
       </c>
       <c r="AH15" t="n">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="AI15" t="n">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="AJ15" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="AK15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AL15" t="n">
         <v>33.333333333333</v>
       </c>
       <c r="AM15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AN15" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="AO15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AP15" t="n">
         <v>7</v>
@@ -5776,103 +5778,103 @@
         <v>2</v>
       </c>
       <c r="AR15" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AS15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU15" t="n">
         <v>4</v>
       </c>
-      <c r="AT15" t="n">
+      <c r="AV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>63.636363636364</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>18</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>45</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>53.125</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>29</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>8</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="BR15" t="n">
         <v>13</v>
       </c>
-      <c r="AU15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>60</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>23</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>48.936170212766</v>
-      </c>
-      <c r="BC15" t="n">
+      <c r="BS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT15" t="n">
         <v>14</v>
       </c>
-      <c r="BD15" t="n">
-        <v>41.176470588235</v>
-      </c>
-      <c r="BE15" t="n">
-        <v>9</v>
-      </c>
-      <c r="BF15" t="n">
-        <v>69.230769230769</v>
-      </c>
-      <c r="BG15" t="n">
-        <v>71</v>
-      </c>
-      <c r="BH15" t="n">
-        <v>9</v>
-      </c>
-      <c r="BI15" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN15" t="n">
-        <v>2</v>
-      </c>
-      <c r="BO15" t="n">
-        <v>6</v>
-      </c>
-      <c r="BP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ15" t="n">
-        <v>90.90000000000001</v>
-      </c>
-      <c r="BR15" t="n">
-        <v>14</v>
-      </c>
-      <c r="BS15" t="n">
-        <v>2</v>
-      </c>
-      <c r="BT15" t="n">
-        <v>50</v>
-      </c>
       <c r="BU15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BW15" t="n">
         <v>0</v>
       </c>
       <c r="BX15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY15" t="n">
         <v>0</v>
@@ -5881,82 +5883,82 @@
         <v>4</v>
       </c>
       <c r="CA15" t="n">
+        <v>2</v>
+      </c>
+      <c r="CB15" t="n">
+        <v>5</v>
+      </c>
+      <c r="CC15" t="n">
+        <v>5</v>
+      </c>
+      <c r="CD15" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ15" t="n">
+        <v>7</v>
+      </c>
+      <c r="CK15" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR15" t="n">
+        <v>4</v>
+      </c>
+      <c r="CS15" t="n">
+        <v>11</v>
+      </c>
+      <c r="CT15" t="n">
+        <v>5</v>
+      </c>
+      <c r="CU15" t="n">
+        <v>22</v>
+      </c>
+      <c r="CV15" t="n">
+        <v>7</v>
+      </c>
+      <c r="CW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ15" t="n">
         <v>3</v>
-      </c>
-      <c r="CB15" t="n">
-        <v>6</v>
-      </c>
-      <c r="CC15" t="n">
-        <v>11</v>
-      </c>
-      <c r="CD15" t="n">
-        <v>5</v>
-      </c>
-      <c r="CE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ15" t="n">
-        <v>5</v>
-      </c>
-      <c r="CK15" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR15" t="n">
-        <v>3</v>
-      </c>
-      <c r="CS15" t="n">
-        <v>5</v>
-      </c>
-      <c r="CT15" t="n">
-        <v>6</v>
-      </c>
-      <c r="CU15" t="n">
-        <v>24</v>
-      </c>
-      <c r="CV15" t="n">
-        <v>4</v>
-      </c>
-      <c r="CW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ15" t="n">
-        <v>15</v>
       </c>
       <c r="DA15" t="n">
         <v>3</v>
@@ -5974,19 +5976,19 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="DG15" t="n">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="DH15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DI15" t="n">
         <v>1</v>
       </c>
       <c r="DJ15" t="n">
-        <v>2140547</v>
+        <v>2140541</v>
       </c>
       <c r="DK15" t="inlineStr">
         <is>
@@ -6008,47 +6010,47 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Warren Kamanzi</t>
+          <t>Charlie Cresswell</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1048366</v>
+        <v>1020744</v>
       </c>
       <c r="E16" t="n">
-        <v>6.6692307692308</v>
+        <v>7.05</v>
       </c>
       <c r="F16" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="H16" t="n">
-        <v>343</v>
+        <v>1980</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4222</v>
+        <v>2.3755</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>660</v>
       </c>
       <c r="M16" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>11.538461538462</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -6060,136 +6062,136 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.49709729</v>
+        <v>0.8069394</v>
       </c>
       <c r="AB16" t="n">
-        <v>180</v>
+        <v>1416</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>961</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>86.26570915619401</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>1114</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>706</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>255</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>73</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>45.578231292517</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>57</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>142</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>140</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>58.091286307054</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>34</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>44.155844155844</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>106</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>64.63414634146299</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>164</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>26</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ16" t="n">
         <v>4</v>
       </c>
-      <c r="AE16" t="n">
-        <v>101</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>87.826086956522</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>115</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>37</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>64</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>37</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>33.333333333333</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>20</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>63.636363636364</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>18</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>45</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>17</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>53.125</v>
-      </c>
-      <c r="BE16" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF16" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="BG16" t="n">
-        <v>29</v>
-      </c>
-      <c r="BH16" t="n">
-        <v>4</v>
-      </c>
-      <c r="BI16" t="n">
-        <v>3</v>
-      </c>
-      <c r="BJ16" t="n">
-        <v>0</v>
-      </c>
       <c r="BK16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BL16" t="n">
         <v>0</v>
@@ -6198,55 +6200,55 @@
         <v>0</v>
       </c>
       <c r="BN16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BO16" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="BP16" t="n">
         <v>0</v>
       </c>
       <c r="BQ16" t="n">
-        <v>86.7</v>
+        <v>155.1</v>
       </c>
       <c r="BR16" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="BS16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BT16" t="n">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="BU16" t="n">
         <v>0</v>
       </c>
       <c r="BV16" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="BW16" t="n">
         <v>0</v>
       </c>
       <c r="BX16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY16" t="n">
         <v>0</v>
       </c>
       <c r="BZ16" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="CA16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CB16" t="n">
         <v>5</v>
       </c>
       <c r="CC16" t="n">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="CD16" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="CE16" t="n">
         <v>0</v>
@@ -6264,10 +6266,10 @@
         <v>0</v>
       </c>
       <c r="CJ16" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="CK16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CL16" t="n">
         <v>0</v>
@@ -6288,19 +6290,19 @@
         <v>0</v>
       </c>
       <c r="CR16" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="CS16" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CT16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CU16" t="n">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="CV16" t="n">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="CW16" t="n">
         <v>0</v>
@@ -6312,13 +6314,13 @@
         <v>0</v>
       </c>
       <c r="CZ16" t="n">
-        <v>3</v>
+        <v>147</v>
       </c>
       <c r="DA16" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="DB16" t="n">
-        <v>42.857142857143</v>
+        <v>47.619047619048</v>
       </c>
       <c r="DC16" t="n">
         <v>0</v>
@@ -6330,19 +6332,19 @@
         <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>39</v>
+        <v>736</v>
       </c>
       <c r="DG16" t="n">
-        <v>76</v>
+        <v>378</v>
       </c>
       <c r="DH16" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="DI16" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="DJ16" t="n">
-        <v>2140541</v>
+        <v>2140587</v>
       </c>
       <c r="DK16" t="inlineStr">
         <is>
@@ -6364,185 +6366,185 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Charlie Cresswell</t>
+          <t>Mark McKenzie</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1020744</v>
+        <v>922759</v>
       </c>
       <c r="E17" t="n">
-        <v>7.1</v>
+        <v>6.87</v>
       </c>
       <c r="F17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G17" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H17" t="n">
-        <v>1890</v>
+        <v>1637</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.3152</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>6</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.79963143</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1108</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>669</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>85.006353240152</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>787</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>387</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>282</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>106</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>45.454545454545</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>33</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>58</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>72</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY17" t="n">
         <v>3</v>
       </c>
-      <c r="K17" t="n">
-        <v>2.2371</v>
-      </c>
-      <c r="L17" t="n">
-        <v>630</v>
-      </c>
-      <c r="M17" t="n">
-        <v>23</v>
-      </c>
-      <c r="N17" t="n">
-        <v>8</v>
-      </c>
-      <c r="O17" t="n">
-        <v>2</v>
-      </c>
-      <c r="P17" t="n">
-        <v>13.04347826087</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>3</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0.7412952</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>1327</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>893</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>85.865384615385</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>1040</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>680</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>213</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>45.138888888889</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>53</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>141</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>0</v>
-      </c>
       <c r="AZ17" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="BA17" t="n">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="BB17" t="n">
-        <v>58.928571428571</v>
+        <v>55.284552845528</v>
       </c>
       <c r="BC17" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="BD17" t="n">
-        <v>45.205479452055</v>
+        <v>59.420289855072</v>
       </c>
       <c r="BE17" t="n">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="BF17" t="n">
-        <v>65.56291390728499</v>
+        <v>50</v>
       </c>
       <c r="BG17" t="n">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="BH17" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="BI17" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="BJ17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BK17" t="n">
         <v>5</v>
@@ -6554,31 +6556,31 @@
         <v>0</v>
       </c>
       <c r="BN17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BO17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BP17" t="n">
         <v>0</v>
       </c>
       <c r="BQ17" t="n">
-        <v>149.1</v>
+        <v>137.4</v>
       </c>
       <c r="BR17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BS17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BT17" t="n">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="BU17" t="n">
         <v>0</v>
       </c>
       <c r="BV17" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="BW17" t="n">
         <v>0</v>
@@ -6590,19 +6592,19 @@
         <v>0</v>
       </c>
       <c r="BZ17" t="n">
+        <v>5</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB17" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC17" t="n">
+        <v>45</v>
+      </c>
+      <c r="CD17" t="n">
         <v>23</v>
-      </c>
-      <c r="CA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB17" t="n">
-        <v>4</v>
-      </c>
-      <c r="CC17" t="n">
-        <v>80</v>
-      </c>
-      <c r="CD17" t="n">
-        <v>43</v>
       </c>
       <c r="CE17" t="n">
         <v>0</v>
@@ -6623,7 +6625,7 @@
         <v>22</v>
       </c>
       <c r="CK17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CL17" t="n">
         <v>0</v>
@@ -6644,19 +6646,19 @@
         <v>0</v>
       </c>
       <c r="CR17" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="CS17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CT17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CU17" t="n">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="CV17" t="n">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="CW17" t="n">
         <v>0</v>
@@ -6668,37 +6670,37 @@
         <v>0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>144</v>
+        <v>66</v>
       </c>
       <c r="DA17" t="n">
+        <v>20</v>
+      </c>
+      <c r="DB17" t="n">
+        <v>60.606060606061</v>
+      </c>
+      <c r="DC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF17" t="n">
+        <v>423</v>
+      </c>
+      <c r="DG17" t="n">
+        <v>364</v>
+      </c>
+      <c r="DH17" t="n">
+        <v>2</v>
+      </c>
+      <c r="DI17" t="n">
         <v>10</v>
       </c>
-      <c r="DB17" t="n">
-        <v>50</v>
-      </c>
-      <c r="DC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF17" t="n">
-        <v>708</v>
-      </c>
-      <c r="DG17" t="n">
-        <v>332</v>
-      </c>
-      <c r="DH17" t="n">
-        <v>46</v>
-      </c>
-      <c r="DI17" t="n">
-        <v>25</v>
-      </c>
       <c r="DJ17" t="n">
-        <v>2140587</v>
+        <v>2140583</v>
       </c>
       <c r="DK17" t="inlineStr">
         <is>
@@ -6720,59 +6722,59 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Mark McKenzie</t>
+          <t>Djibril Sidibé</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>922759</v>
+        <v>123388</v>
       </c>
       <c r="E18" t="n">
-        <v>6.8736842105263</v>
+        <v>6.8181818181818</v>
       </c>
       <c r="F18" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H18" t="n">
-        <v>1547</v>
+        <v>1534</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2883</v>
+        <v>2.4529</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>511.33333333333</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>42.857142857143</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -6781,280 +6783,280 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.75804373</v>
+        <v>1.3313</v>
       </c>
       <c r="AB18" t="n">
-        <v>1012</v>
+        <v>883</v>
       </c>
       <c r="AC18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE18" t="n">
-        <v>591</v>
+        <v>487</v>
       </c>
       <c r="AF18" t="n">
-        <v>83.829787234043</v>
+        <v>79.445350734095</v>
       </c>
       <c r="AG18" t="n">
-        <v>705</v>
+        <v>613</v>
       </c>
       <c r="AH18" t="n">
-        <v>365</v>
+        <v>224</v>
       </c>
       <c r="AI18" t="n">
-        <v>226</v>
+        <v>263</v>
       </c>
       <c r="AJ18" t="n">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="AK18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL18" t="n">
-        <v>42.622950819672</v>
+        <v>44.230769230769</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>20.93023255814</v>
       </c>
       <c r="AO18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>33</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>37</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>58.333333333333</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>63</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>57.272727272727</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>50</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>59.52380952381</v>
+      </c>
+      <c r="BE18" t="n">
         <v>13</v>
       </c>
-      <c r="AP18" t="n">
-        <v>32</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>53</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>5</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>71</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>66.666666666667</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>62</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>55.855855855856</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>37</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>59.677419354839</v>
-      </c>
-      <c r="BE18" t="n">
-        <v>25</v>
-      </c>
       <c r="BF18" t="n">
-        <v>51.020408163265</v>
+        <v>50</v>
       </c>
       <c r="BG18" t="n">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="BH18" t="n">
         <v>19</v>
       </c>
       <c r="BI18" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN18" t="n">
         <v>4</v>
       </c>
-      <c r="BJ18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK18" t="n">
-        <v>5</v>
-      </c>
-      <c r="BL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN18" t="n">
+      <c r="BO18" t="n">
+        <v>22</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>150</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>22</v>
+      </c>
+      <c r="BS18" t="n">
         <v>6</v>
       </c>
-      <c r="BO18" t="n">
-        <v>23</v>
-      </c>
-      <c r="BP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ18" t="n">
-        <v>130.6</v>
-      </c>
-      <c r="BR18" t="n">
-        <v>19</v>
-      </c>
-      <c r="BS18" t="n">
-        <v>2</v>
-      </c>
       <c r="BT18" t="n">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="BU18" t="n">
         <v>0</v>
       </c>
       <c r="BV18" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>2</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>6</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>4</v>
+      </c>
+      <c r="CC18" t="n">
+        <v>40</v>
+      </c>
+      <c r="CD18" t="n">
+        <v>18</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ18" t="n">
+        <v>20</v>
+      </c>
+      <c r="CK18" t="n">
+        <v>2</v>
+      </c>
+      <c r="CL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR18" t="n">
+        <v>11</v>
+      </c>
+      <c r="CS18" t="n">
+        <v>12</v>
+      </c>
+      <c r="CT18" t="n">
+        <v>43</v>
+      </c>
+      <c r="CU18" t="n">
+        <v>47</v>
+      </c>
+      <c r="CV18" t="n">
+        <v>13</v>
+      </c>
+      <c r="CW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ18" t="n">
+        <v>52</v>
+      </c>
+      <c r="DA18" t="n">
+        <v>25</v>
+      </c>
+      <c r="DB18" t="n">
+        <v>75.75757575757601</v>
+      </c>
+      <c r="DC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF18" t="n">
+        <v>250</v>
+      </c>
+      <c r="DG18" t="n">
+        <v>363</v>
+      </c>
+      <c r="DH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI18" t="n">
         <v>3</v>
       </c>
-      <c r="BW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ18" t="n">
-        <v>4</v>
-      </c>
-      <c r="CA18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC18" t="n">
-        <v>43</v>
-      </c>
-      <c r="CD18" t="n">
-        <v>21</v>
-      </c>
-      <c r="CE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ18" t="n">
-        <v>21</v>
-      </c>
-      <c r="CK18" t="n">
-        <v>2</v>
-      </c>
-      <c r="CL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR18" t="n">
-        <v>10</v>
-      </c>
-      <c r="CS18" t="n">
-        <v>3</v>
-      </c>
-      <c r="CT18" t="n">
-        <v>2</v>
-      </c>
-      <c r="CU18" t="n">
-        <v>49</v>
-      </c>
-      <c r="CV18" t="n">
-        <v>24</v>
-      </c>
-      <c r="CW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ18" t="n">
-        <v>61</v>
-      </c>
-      <c r="DA18" t="n">
-        <v>20</v>
-      </c>
-      <c r="DB18" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="DC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF18" t="n">
-        <v>399</v>
-      </c>
-      <c r="DG18" t="n">
-        <v>306</v>
-      </c>
-      <c r="DH18" t="n">
-        <v>2</v>
-      </c>
-      <c r="DI18" t="n">
-        <v>10</v>
-      </c>
       <c r="DJ18" t="n">
-        <v>2140583</v>
+        <v>2140555</v>
       </c>
       <c r="DK18" t="inlineStr">
         <is>
@@ -7076,317 +7078,317 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Djibril Sidibé</t>
+          <t>Dayann Methalie</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>123388</v>
+        <v>1894003</v>
       </c>
       <c r="E19" t="n">
-        <v>6.7857142857143</v>
+        <v>6.5166666666667</v>
       </c>
       <c r="F19" t="n">
+        <v>18</v>
+      </c>
+      <c r="G19" t="n">
+        <v>14</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1214</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.5199</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>10</v>
+      </c>
+      <c r="N19" t="n">
+        <v>5</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>1.11150763</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>620</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>222</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>77.083333333333</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>288</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>109</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>113</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>59</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>33.333333333333</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>14.814814814815</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>36</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>39.21568627451</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>69</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>41.818181818182</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>63</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>41.721854304636</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>42.857142857143</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>188</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>35</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>5</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>15</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>117.3</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>18</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>66</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>4</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>7</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>3</v>
+      </c>
+      <c r="CB19" t="n">
         <v>21</v>
       </c>
-      <c r="G19" t="n">
-        <v>17</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1451</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1.944</v>
-      </c>
-      <c r="L19" t="n">
-        <v>725.5</v>
-      </c>
-      <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="n">
-        <v>3</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" t="n">
-        <v>50</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>1.2343546</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>812</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>438</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>78.918918918919</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>555</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>211</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>227</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>117</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>44.897959183673</v>
-      </c>
-      <c r="AM19" t="n">
+      <c r="CC19" t="n">
+        <v>20</v>
+      </c>
+      <c r="CD19" t="n">
+        <v>7</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ19" t="n">
+        <v>13</v>
+      </c>
+      <c r="CK19" t="n">
+        <v>2</v>
+      </c>
+      <c r="CL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR19" t="n">
+        <v>6</v>
+      </c>
+      <c r="CS19" t="n">
+        <v>51</v>
+      </c>
+      <c r="CT19" t="n">
+        <v>27</v>
+      </c>
+      <c r="CU19" t="n">
+        <v>96</v>
+      </c>
+      <c r="CV19" t="n">
         <v>8</v>
       </c>
-      <c r="AN19" t="n">
-        <v>21.621621621622</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>31</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>4</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>59</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>37</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>58.333333333333</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>60</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>57.692307692308</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>48</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>60</v>
-      </c>
-      <c r="BE19" t="n">
-        <v>12</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>50</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>180</v>
-      </c>
-      <c r="BH19" t="n">
-        <v>17</v>
-      </c>
-      <c r="BI19" t="n">
-        <v>11</v>
-      </c>
-      <c r="BJ19" t="n">
-        <v>3</v>
-      </c>
-      <c r="BK19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN19" t="n">
-        <v>4</v>
-      </c>
-      <c r="BO19" t="n">
+      <c r="CW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ19" t="n">
+        <v>21</v>
+      </c>
+      <c r="DA19" t="n">
         <v>20</v>
       </c>
-      <c r="BP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ19" t="n">
-        <v>142.5</v>
-      </c>
-      <c r="BR19" t="n">
-        <v>21</v>
-      </c>
-      <c r="BS19" t="n">
-        <v>5</v>
-      </c>
-      <c r="BT19" t="n">
-        <v>117</v>
-      </c>
-      <c r="BU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW19" t="n">
-        <v>2</v>
-      </c>
-      <c r="BX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ19" t="n">
-        <v>5</v>
-      </c>
-      <c r="CA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB19" t="n">
-        <v>4</v>
-      </c>
-      <c r="CC19" t="n">
-        <v>38</v>
-      </c>
-      <c r="CD19" t="n">
-        <v>17</v>
-      </c>
-      <c r="CE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ19" t="n">
-        <v>19</v>
-      </c>
-      <c r="CK19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR19" t="n">
-        <v>10</v>
-      </c>
-      <c r="CS19" t="n">
-        <v>12</v>
-      </c>
-      <c r="CT19" t="n">
-        <v>37</v>
-      </c>
-      <c r="CU19" t="n">
-        <v>44</v>
-      </c>
-      <c r="CV19" t="n">
-        <v>12</v>
-      </c>
-      <c r="CW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ19" t="n">
-        <v>49</v>
-      </c>
-      <c r="DA19" t="n">
-        <v>23</v>
-      </c>
       <c r="DB19" t="n">
-        <v>74.193548387097</v>
+        <v>55.555555555556</v>
       </c>
       <c r="DC19" t="n">
         <v>0</v>
@@ -7398,10 +7400,10 @@
         <v>0</v>
       </c>
       <c r="DF19" t="n">
-        <v>236</v>
+        <v>128</v>
       </c>
       <c r="DG19" t="n">
-        <v>319</v>
+        <v>160</v>
       </c>
       <c r="DH19" t="n">
         <v>0</v>
@@ -7410,7 +7412,7 @@
         <v>3</v>
       </c>
       <c r="DJ19" t="n">
-        <v>2140555</v>
+        <v>2140581</v>
       </c>
       <c r="DK19" t="inlineStr">
         <is>
@@ -7439,16 +7441,16 @@
         <v>798124</v>
       </c>
       <c r="E20" t="n">
-        <v>6.7333333333333</v>
+        <v>6.6818181818182</v>
       </c>
       <c r="F20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H20" t="n">
-        <v>1606</v>
+        <v>1668</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -7457,16 +7459,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5499000000000001</v>
+        <v>0.6181</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -7505,10 +7507,10 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.38047271</v>
+        <v>0.41392361</v>
       </c>
       <c r="AB20" t="n">
-        <v>998</v>
+        <v>1048</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
@@ -7517,28 +7519,28 @@
         <v>1</v>
       </c>
       <c r="AE20" t="n">
-        <v>642</v>
+        <v>683</v>
       </c>
       <c r="AF20" t="n">
-        <v>86.874154262517</v>
+        <v>87.22860791826299</v>
       </c>
       <c r="AG20" t="n">
-        <v>739</v>
+        <v>783</v>
       </c>
       <c r="AH20" t="n">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="AI20" t="n">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="AJ20" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="AK20" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL20" t="n">
-        <v>46.376811594203</v>
+        <v>47.887323943662</v>
       </c>
       <c r="AM20" t="n">
         <v>0</v>
@@ -7547,7 +7549,7 @@
         <v>0</v>
       </c>
       <c r="AO20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AP20" t="n">
         <v>17</v>
@@ -7556,10 +7558,10 @@
         <v>3</v>
       </c>
       <c r="AR20" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AS20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT20" t="n">
         <v>106</v>
@@ -7571,7 +7573,7 @@
         <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX20" t="n">
         <v>1</v>
@@ -7586,25 +7588,25 @@
         <v>85</v>
       </c>
       <c r="BB20" t="n">
-        <v>64.39393939393899</v>
+        <v>62.043795620438</v>
       </c>
       <c r="BC20" t="n">
         <v>31</v>
       </c>
       <c r="BD20" t="n">
-        <v>56.363636363636</v>
+        <v>53.448275862069</v>
       </c>
       <c r="BE20" t="n">
         <v>54</v>
       </c>
       <c r="BF20" t="n">
-        <v>70.12987012987</v>
+        <v>68.354430379747</v>
       </c>
       <c r="BG20" t="n">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="BH20" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BI20" t="n">
         <v>12</v>
@@ -7625,22 +7627,22 @@
         <v>6</v>
       </c>
       <c r="BO20" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BP20" t="n">
         <v>0</v>
       </c>
       <c r="BQ20" t="n">
-        <v>141.4</v>
+        <v>147</v>
       </c>
       <c r="BR20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS20" t="n">
         <v>0</v>
       </c>
       <c r="BT20" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="BU20" t="n">
         <v>0</v>
@@ -7661,16 +7663,16 @@
         <v>10</v>
       </c>
       <c r="CA20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB20" t="n">
         <v>0</v>
       </c>
       <c r="CC20" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="CD20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="CE20" t="n">
         <v>0</v>
@@ -7688,10 +7690,10 @@
         <v>0</v>
       </c>
       <c r="CJ20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CK20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CL20" t="n">
         <v>0</v>
@@ -7721,10 +7723,10 @@
         <v>2</v>
       </c>
       <c r="CU20" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="CV20" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="CW20" t="n">
         <v>0</v>
@@ -7736,7 +7738,7 @@
         <v>0</v>
       </c>
       <c r="CZ20" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="DA20" t="n">
         <v>11</v>
@@ -7754,16 +7756,16 @@
         <v>0</v>
       </c>
       <c r="DF20" t="n">
-        <v>473</v>
+        <v>491</v>
       </c>
       <c r="DG20" t="n">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="DH20" t="n">
         <v>4</v>
       </c>
       <c r="DI20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="DJ20" t="n">
         <v>2140545</v>
@@ -8149,16 +8151,16 @@
         <v>1154630</v>
       </c>
       <c r="E22" t="n">
-        <v>6.8190476190476</v>
+        <v>6.7727272727273</v>
       </c>
       <c r="F22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H22" t="n">
-        <v>1890</v>
+        <v>1980</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -8213,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.05711659</v>
+        <v>0.05719211</v>
       </c>
       <c r="AB22" t="n">
-        <v>695</v>
+        <v>708</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -8225,16 +8227,16 @@
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="AF22" t="n">
-        <v>66.857142857143</v>
+        <v>67.35074626865701</v>
       </c>
       <c r="AG22" t="n">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="AH22" t="n">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="AI22" t="n">
         <v>85</v>
@@ -8243,10 +8245,10 @@
         <v>24</v>
       </c>
       <c r="AK22" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AL22" t="n">
-        <v>38.289962825279</v>
+        <v>38.376383763838</v>
       </c>
       <c r="AM22" t="n">
         <v>0</v>
@@ -8264,7 +8266,7 @@
         <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AS22" t="n">
         <v>1</v>
@@ -8309,7 +8311,7 @@
         <v>100</v>
       </c>
       <c r="BG22" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="BH22" t="n">
         <v>0</v>
@@ -8321,34 +8323,34 @@
         <v>0</v>
       </c>
       <c r="BK22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BL22" t="n">
         <v>0</v>
       </c>
       <c r="BM22" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="BN22" t="n">
         <v>8</v>
       </c>
       <c r="BO22" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BP22" t="n">
         <v>0</v>
       </c>
       <c r="BQ22" t="n">
-        <v>143.2</v>
+        <v>149</v>
       </c>
       <c r="BR22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS22" t="n">
         <v>0</v>
       </c>
       <c r="BT22" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="BU22" t="n">
         <v>0</v>
@@ -8396,10 +8398,10 @@
         <v>15</v>
       </c>
       <c r="CJ22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="CK22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CL22" t="n">
         <v>11</v>
@@ -8444,7 +8446,7 @@
         <v>0</v>
       </c>
       <c r="CZ22" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="DA22" t="n">
         <v>0</v>
@@ -8459,16 +8461,16 @@
         <v>0</v>
       </c>
       <c r="DE22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="DF22" t="n">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="DG22" t="n">
         <v>230</v>
       </c>
       <c r="DH22" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="DI22" t="n">
         <v>0</v>
@@ -8482,7 +8484,7 @@
         </is>
       </c>
       <c r="DL22" t="n">
-        <v>1.6383</v>
+        <v>0.7057</v>
       </c>
     </row>
   </sheetData>
